--- a/excel/write-excel/Sheet1.xlsx
+++ b/excel/write-excel/Sheet1.xlsx
@@ -14,9 +14,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b/>
-      <color rgb="004e47cc"/>
-      <sz val="12"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -27,7 +29,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -35,20 +37,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,26 +382,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>234</v>
-      </c>
-      <c r="B3" s="1">
-        <v>567</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/excel/write-excel/Sheet1.xlsx
+++ b/excel/write-excel/Sheet1.xlsx
@@ -14,11 +14,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b/>
+      <color rgb="004e47cc"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +27,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -37,12 +35,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,9 +388,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>234</v>
+      </c>
+      <c r="B2" s="1">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
